--- a/covid19/data/xlsx/unprecedented.xlsx
+++ b/covid19/data/xlsx/unprecedented.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Repositories\notebooks\covid19\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2468CF20-535C-4022-91A8-40FC4B5511C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BA4F63-EFA3-4098-80AC-3D8E37A26D81}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18390" yWindow="-2805" windowWidth="18510" windowHeight="11040"/>
+    <workbookView xWindow="-18390" yWindow="-2805" windowWidth="18510" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="multiTimeline" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Possible Cause</t>
-  </si>
   <si>
     <t>Donald Trump election</t>
   </si>
@@ -58,12 +52,6 @@
     <t>Death toll exceeds 100,000 globally</t>
   </si>
   <si>
-    <t>Relative Strength</t>
-  </si>
-  <si>
-    <t>What's Unprecedented this Week</t>
-  </si>
-  <si>
     <t>Italy places 16 million people in quarantine</t>
   </si>
   <si>
@@ -84,11 +72,23 @@
   <si>
     <t>Stock Market Crash</t>
   </si>
+  <si>
+    <t>week_date</t>
+  </si>
+  <si>
+    <t>relative_strength</t>
+  </si>
+  <si>
+    <t>possible_cause</t>
+  </si>
+  <si>
+    <t>week_topic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -972,11 +972,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,16 +989,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1641,10 +1641,10 @@
         <v>16</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1655,7 +1655,7 @@
         <v>15</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,7 +1690,7 @@
         <v>26</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>30</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1720,7 +1720,7 @@
         <v>23</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1995,10 +1995,10 @@
         <v>21</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2865,10 +2865,10 @@
         <v>19</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D231" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -3047,7 +3047,7 @@
         <v>15</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -3066,10 +3066,10 @@
         <v>26</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,10 +3080,10 @@
         <v>88</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -3094,10 +3094,10 @@
         <v>100</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D257" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -3108,10 +3108,10 @@
         <v>79</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D258" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -3122,10 +3122,10 @@
         <v>67</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D259" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -3136,10 +3136,10 @@
         <v>53</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D260" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -3150,10 +3150,10 @@
         <v>58</v>
       </c>
       <c r="C261" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s">
         <v>4</v>
-      </c>
-      <c r="D261" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
